--- a/Experiments/Part3-Producer/DocPop/setting 8 Results/DocPop_prod-Mix_G-400-payoff.xlsx
+++ b/Experiments/Part3-Producer/DocPop/setting 8 Results/DocPop_prod-Mix_G-400-payoff.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="DocPop_prod-Mix_G-400-payoff.cs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -643,8 +643,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2070605416"/>
-        <c:axId val="-2069945560"/>
+        <c:axId val="2136894728"/>
+        <c:axId val="2135708728"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -927,11 +927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071661768"/>
-        <c:axId val="-2066444312"/>
+        <c:axId val="2136255640"/>
+        <c:axId val="2135960808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2070605416"/>
+        <c:axId val="2136894728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,7 +940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2069945560"/>
+        <c:crossAx val="2135708728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -948,7 +948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069945560"/>
+        <c:axId val="2135708728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,12 +959,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070605416"/>
+        <c:crossAx val="2136894728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2066444312"/>
+        <c:axId val="2135960808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,12 +974,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071661768"/>
+        <c:crossAx val="2136255640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2071661768"/>
+        <c:axId val="2136255640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +988,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066444312"/>
+        <c:crossAx val="2135960808"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -997,7 +998,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1369,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C81" sqref="A1:C81"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2271,6 +2271,12 @@
     <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="C84">
+        <f>SUM(C2:C81)</f>
+        <v>493971</v>
       </c>
     </row>
   </sheetData>
